--- a/biology/Botanique/Hymenophyllum_nitidulum/Hymenophyllum_nitidulum.xlsx
+++ b/biology/Botanique/Hymenophyllum_nitidulum/Hymenophyllum_nitidulum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum nitidulum est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a les caractéristiques suivantes :
 son rhizome est long et filiforme ;
@@ -548,13 +562,15 @@
           <t>Position taxonomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les différentes positions dans la famille des Hymenophyllacées illustrent les difficultés de classement de cette espèce.
-Elle a d'abord été classée dans le genre Trichomanes par Roelof Benjamin van den Bosch en 1856[1]. Ce classement s'explique principalement par la forme de l'indusie.
-En 1875, Karl Anton Eugen Prantl la reclasse dans le genre Gonocormus[2].
-En 1938, Edwin Bingham Copeland la reclasse dans le genre Microtrichomanes[3].
-En 1982, Kunio Iwatsuki la transfère dans le genre Sphaerocionium[4].
+Elle a d'abord été classée dans le genre Trichomanes par Roelof Benjamin van den Bosch en 1856. Ce classement s'explique principalement par la forme de l'indusie.
+En 1875, Karl Anton Eugen Prantl la reclasse dans le genre Gonocormus.
+En 1938, Edwin Bingham Copeland la reclasse dans le genre Microtrichomanes.
+En 1982, Kunio Iwatsuki la transfère dans le genre Sphaerocionium.
 Enfin, en 2004, Atsushi Ebihara et Kunio Iwatsuki, dans leur travail de révision des Hymenophyllacées, la placent finalement dans le genre Hymenophyllum, sous-genre Sphaerocionium.
 Il en résulte donc une importante synonymie :
 Gonocormus nitidulus (Bosch) Prantl
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fougère, plutôt épiphyte de troncs d'arbres, est présente en Asie tropicale - Chine, Sri Lanka, Vietnam - en Indonésie et aux Philippines - Java, Luzon -.
 </t>
